--- a/lectures/10/confidence_interval.xlsx
+++ b/lectures/10/confidence_interval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\GitHub\courses_teach\mizzou\mar4050_F21\lectures\10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tn9k4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE5E87-BFDD-4FBE-91B6-BB68653A07AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE70EFB-E2CB-4779-BDC7-516D1424327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{239A5BC2-9290-4694-A40F-073CC121A9BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{239A5BC2-9290-4694-A40F-073CC121A9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Mean</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Prop</t>
+  </si>
+  <si>
+    <t>Lower bound</t>
+  </si>
+  <si>
+    <t>Upper bound</t>
   </si>
 </sst>
 </file>
@@ -414,15 +420,22 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="C1:D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4</v>
       </c>
+      <c r="B1">
+        <f>AVERAGE(A1:A40)</f>
+        <v>3.9750000000000001</v>
+      </c>
       <c r="C1">
         <f>AVERAGE(A1:A40)</f>
         <v>3.9750000000000001</v>
@@ -435,6 +448,10 @@
       <c r="A2">
         <v>5</v>
       </c>
+      <c r="B2">
+        <f>_xlfn.STDEV.S(A1:A40)</f>
+        <v>0.89119625741514974</v>
+      </c>
       <c r="C2">
         <f>_xlfn.STDEV.S(A1:A40)</f>
         <v>0.89119625741514974</v>
@@ -447,6 +464,10 @@
       <c r="A3">
         <v>4</v>
       </c>
+      <c r="B3">
+        <f>COUNT(A1:A40)</f>
+        <v>40</v>
+      </c>
       <c r="C3">
         <f>COUNT(A1:A40)</f>
         <v>40</v>
@@ -459,6 +480,9 @@
       <c r="A4">
         <v>5</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.95</v>
+      </c>
       <c r="C4" s="1">
         <v>0.95</v>
       </c>
@@ -469,6 +493,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>1-B4</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="C5" s="1">
         <f>1-C4</f>
@@ -481,6 +509,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.CONFIDENCE.T(B5,B2,B3)</f>
+        <v>0.28501839047055466</v>
       </c>
       <c r="C6">
         <f>_xlfn.CONFIDENCE.T(C5,C2,C3)</f>
@@ -667,17 +699,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76C6FE-43F4-4056-BC7E-0EB5D23D2AA9}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <f>SUM(A1:A40)/COUNT(A1:A40)</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C1">
         <f>SUM(A1:A40)/COUNT(A1:A40)</f>
@@ -687,9 +723,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <f>COUNT(A1:A40)</f>
+        <v>40</v>
       </c>
       <c r="C2">
         <f>COUNT(A1:A40)</f>
@@ -699,9 +739,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
+      </c>
+      <c r="B3">
+        <f>SQRT(B1*(1-B1)/B2)</f>
+        <v>7.8660663612761361E-2</v>
       </c>
       <c r="C3">
         <f>SQRT(C1*(1-C1)/C2)</f>
@@ -711,9 +755,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95</v>
       </c>
       <c r="C4" s="1">
         <v>0.95</v>
@@ -722,9 +769,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>1-B4</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="C5" s="1">
         <f>1-C4</f>
@@ -734,64 +785,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <f>C3*C5</f>
-        <v>3.9330331806380712E-3</v>
+      <c r="B6">
+        <f>B1+_xlfn.NORM.S.INV(B5/2)*B3</f>
+        <v>0.39582793231896751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B1+_xlfn.NORM.S.INV(1-B5/2)*B3</f>
+        <v>0.70417206768103258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>_xlfn.NORM.S.INV(1-B5/2)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
